--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndah\OneDrive\Documents\04 - Kuliah\semester 7\riset\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndah\OneDrive\Documents\04 - Kuliah\semester 7\riset\code\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889A9243-3B90-4936-8976-BC87015ABA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EC71F6-3DE4-47CA-8CC9-C77F32DC1C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,6 +108,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -371,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
